--- a/documents/Test/System_Test_Sample.xlsx
+++ b/documents/Test/System_Test_Sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Description</t>
   </si>
@@ -34,13 +34,37 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Quản lý chi tiêu</t>
+  </si>
+  <si>
+    <t>Không lưu dữ liệu được input bởi NFC</t>
+  </si>
+  <si>
+    <t>1. Khởi chạy app thành công
+2. Chọn tạo mới khoản chi 
+3. Input bằng NFC
+4. Save lại thông tin vừa hiển thị
+--&gt; Actual: Barchart hiển thị chi phí vừa nhập chỉ có 1 màu và dữ liệu tổng tiền bị đưa về 0</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>1. Focus vào màn hình quản lý chi tiêu
+2. Hiển thị màn hình thêm mới
+3. Hiển thị thông báo phát hiện một bản ghi
+- Hiển thị thông tin trong thẻ NFC
+4. Back lại màn hình quản lý chi tiêu
+- Hiển thị barchart thể hiện chính xác chi phí vừa nhập bởi thẻ NFC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +75,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -97,13 +127,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,76 +445,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
